--- a/data/norm.cause-of-death-2019.xlsx
+++ b/data/norm.cause-of-death-2019.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,95 +441,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -552,60 +547,57 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E2" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F2" t="n">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G2" t="n">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="H2" t="n">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="I2" t="n">
-        <v>54</v>
+        <v>91</v>
       </c>
       <c r="J2" t="n">
-        <v>91</v>
+        <v>101</v>
       </c>
       <c r="K2" t="n">
-        <v>101</v>
+        <v>130</v>
       </c>
       <c r="L2" t="n">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="M2" t="n">
-        <v>210</v>
+        <v>309</v>
       </c>
       <c r="N2" t="n">
-        <v>309</v>
+        <v>470</v>
       </c>
       <c r="O2" t="n">
-        <v>470</v>
+        <v>649</v>
       </c>
       <c r="P2" t="n">
-        <v>649</v>
+        <v>837</v>
       </c>
       <c r="Q2" t="n">
-        <v>837</v>
+        <v>973</v>
       </c>
       <c r="R2" t="n">
-        <v>973</v>
+        <v>1123</v>
       </c>
       <c r="S2" t="n">
-        <v>1123</v>
+        <v>970</v>
       </c>
       <c r="T2" t="n">
-        <v>970</v>
+        <v>866</v>
       </c>
       <c r="U2" t="n">
-        <v>866</v>
-      </c>
-      <c r="V2" t="n">
         <v>893</v>
       </c>
     </row>
@@ -626,60 +618,57 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="E3" t="n">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F3" t="n">
         <v>48</v>
       </c>
       <c r="G3" t="n">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="H3" t="n">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="I3" t="n">
-        <v>61</v>
+        <v>89</v>
       </c>
       <c r="J3" t="n">
-        <v>89</v>
+        <v>152</v>
       </c>
       <c r="K3" t="n">
-        <v>152</v>
+        <v>253</v>
       </c>
       <c r="L3" t="n">
-        <v>253</v>
+        <v>404</v>
       </c>
       <c r="M3" t="n">
-        <v>404</v>
+        <v>641</v>
       </c>
       <c r="N3" t="n">
-        <v>641</v>
+        <v>1183</v>
       </c>
       <c r="O3" t="n">
-        <v>1183</v>
+        <v>1836</v>
       </c>
       <c r="P3" t="n">
-        <v>1836</v>
+        <v>2294</v>
       </c>
       <c r="Q3" t="n">
-        <v>2294</v>
+        <v>2694</v>
       </c>
       <c r="R3" t="n">
-        <v>2694</v>
+        <v>2468</v>
       </c>
       <c r="S3" t="n">
-        <v>2468</v>
+        <v>1764</v>
       </c>
       <c r="T3" t="n">
-        <v>1764</v>
+        <v>953</v>
       </c>
       <c r="U3" t="n">
-        <v>953</v>
-      </c>
-      <c r="V3" t="n">
         <v>582</v>
       </c>
     </row>
@@ -700,60 +689,57 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>3</v>
       </c>
       <c r="F4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G4" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H4" t="n">
         <v>7</v>
       </c>
       <c r="I4" t="n">
+        <v>6</v>
+      </c>
+      <c r="J4" t="n">
         <v>7</v>
       </c>
-      <c r="J4" t="n">
-        <v>6</v>
-      </c>
       <c r="K4" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="L4" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="N4" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="P4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="Q4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="R4" t="n">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="S4" t="n">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="T4" t="n">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="U4" t="n">
-        <v>33</v>
-      </c>
-      <c r="V4" t="n">
         <v>36</v>
       </c>
     </row>
@@ -774,60 +760,57 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="E5" t="n">
         <v>2</v>
       </c>
       <c r="F5" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="G5" t="n">
+        <v>11</v>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
-      <c r="H5" t="n">
-        <v>11</v>
-      </c>
       <c r="I5" t="n">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="J5" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" t="n">
-        <v>27</v>
+        <v>58</v>
       </c>
       <c r="L5" t="n">
-        <v>58</v>
+        <v>156</v>
       </c>
       <c r="M5" t="n">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="N5" t="n">
-        <v>303</v>
+        <v>583</v>
       </c>
       <c r="O5" t="n">
-        <v>583</v>
+        <v>1014</v>
       </c>
       <c r="P5" t="n">
-        <v>1014</v>
+        <v>1430</v>
       </c>
       <c r="Q5" t="n">
-        <v>1430</v>
+        <v>1902</v>
       </c>
       <c r="R5" t="n">
-        <v>1902</v>
+        <v>2181</v>
       </c>
       <c r="S5" t="n">
-        <v>2181</v>
+        <v>1915</v>
       </c>
       <c r="T5" t="n">
-        <v>1915</v>
+        <v>1367</v>
       </c>
       <c r="U5" t="n">
-        <v>1367</v>
-      </c>
-      <c r="V5" t="n">
         <v>1184</v>
       </c>
     </row>
@@ -848,60 +831,57 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="K6" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="L6" t="n">
+        <v>13</v>
+      </c>
+      <c r="M6" t="n">
         <v>12</v>
       </c>
-      <c r="M6" t="n">
-        <v>13</v>
-      </c>
       <c r="N6" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="O6" t="n">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="P6" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="Q6" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R6" t="n">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S6" t="n">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="T6" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="U6" t="n">
-        <v>36</v>
-      </c>
-      <c r="V6" t="n">
         <v>16</v>
       </c>
     </row>
@@ -922,60 +902,57 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E7" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F7" t="n">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G7" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H7" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="I7" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="J7" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="K7" t="n">
-        <v>29</v>
+        <v>63</v>
       </c>
       <c r="L7" t="n">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="M7" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="N7" t="n">
-        <v>130</v>
+        <v>217</v>
       </c>
       <c r="O7" t="n">
-        <v>217</v>
+        <v>374</v>
       </c>
       <c r="P7" t="n">
-        <v>374</v>
+        <v>634</v>
       </c>
       <c r="Q7" t="n">
-        <v>634</v>
+        <v>1148</v>
       </c>
       <c r="R7" t="n">
-        <v>1148</v>
+        <v>1817</v>
       </c>
       <c r="S7" t="n">
-        <v>1817</v>
+        <v>2254</v>
       </c>
       <c r="T7" t="n">
-        <v>2254</v>
+        <v>2305</v>
       </c>
       <c r="U7" t="n">
-        <v>2305</v>
-      </c>
-      <c r="V7" t="n">
         <v>2979</v>
       </c>
     </row>
@@ -1008,48 +985,45 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1103,10 +1077,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1121,9 +1095,6 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1144,60 +1115,57 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>57</v>
+        <v>13</v>
       </c>
       <c r="E10" t="n">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F10" t="n">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="G10" t="n">
-        <v>37</v>
+        <v>63</v>
       </c>
       <c r="H10" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="I10" t="n">
-        <v>66</v>
+        <v>110</v>
       </c>
       <c r="J10" t="n">
-        <v>110</v>
+        <v>192</v>
       </c>
       <c r="K10" t="n">
-        <v>192</v>
+        <v>377</v>
       </c>
       <c r="L10" t="n">
-        <v>377</v>
+        <v>648</v>
       </c>
       <c r="M10" t="n">
-        <v>648</v>
+        <v>1054</v>
       </c>
       <c r="N10" t="n">
-        <v>1054</v>
+        <v>1819</v>
       </c>
       <c r="O10" t="n">
-        <v>1819</v>
+        <v>2851</v>
       </c>
       <c r="P10" t="n">
-        <v>2851</v>
+        <v>3888</v>
       </c>
       <c r="Q10" t="n">
-        <v>3888</v>
+        <v>4897</v>
       </c>
       <c r="R10" t="n">
-        <v>4897</v>
+        <v>5471</v>
       </c>
       <c r="S10" t="n">
-        <v>5471</v>
+        <v>5207</v>
       </c>
       <c r="T10" t="n">
-        <v>5207</v>
+        <v>4264</v>
       </c>
       <c r="U10" t="n">
-        <v>4264</v>
-      </c>
-      <c r="V10" t="n">
         <v>4500</v>
       </c>
     </row>
@@ -1218,60 +1186,57 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="E11" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F11" t="n">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="G11" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H11" t="n">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="I11" t="n">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="J11" t="n">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="K11" t="n">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="L11" t="n">
-        <v>108</v>
+        <v>166</v>
       </c>
       <c r="M11" t="n">
-        <v>166</v>
+        <v>275</v>
       </c>
       <c r="N11" t="n">
-        <v>275</v>
+        <v>424</v>
       </c>
       <c r="O11" t="n">
-        <v>424</v>
+        <v>738</v>
       </c>
       <c r="P11" t="n">
-        <v>738</v>
+        <v>1127</v>
       </c>
       <c r="Q11" t="n">
-        <v>1127</v>
+        <v>1716</v>
       </c>
       <c r="R11" t="n">
-        <v>1716</v>
+        <v>2247</v>
       </c>
       <c r="S11" t="n">
-        <v>2247</v>
+        <v>2422</v>
       </c>
       <c r="T11" t="n">
-        <v>2422</v>
+        <v>2324</v>
       </c>
       <c r="U11" t="n">
-        <v>2324</v>
-      </c>
-      <c r="V11" t="n">
         <v>2919</v>
       </c>
     </row>
@@ -1292,60 +1257,57 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F12" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G12" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="J12" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="K12" t="n">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="L12" t="n">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="M12" t="n">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="N12" t="n">
-        <v>263</v>
+        <v>430</v>
       </c>
       <c r="O12" t="n">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="P12" t="n">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="Q12" t="n">
-        <v>486</v>
+        <v>581</v>
       </c>
       <c r="R12" t="n">
-        <v>581</v>
+        <v>509</v>
       </c>
       <c r="S12" t="n">
-        <v>509</v>
+        <v>341</v>
       </c>
       <c r="T12" t="n">
-        <v>341</v>
+        <v>258</v>
       </c>
       <c r="U12" t="n">
-        <v>258</v>
-      </c>
-      <c r="V12" t="n">
         <v>181</v>
       </c>
     </row>
@@ -1366,60 +1328,57 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
         <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="M13" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="N13" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O13" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="P13" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="Q13" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="R13" t="n">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="S13" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="T13" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="U13" t="n">
-        <v>42</v>
-      </c>
-      <c r="V13" t="n">
         <v>72</v>
       </c>
     </row>
@@ -1440,60 +1399,57 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G14" t="n">
+        <v>1</v>
+      </c>
+      <c r="H14" t="n">
         <v>2</v>
       </c>
-      <c r="H14" t="n">
-        <v>1</v>
-      </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J14" t="n">
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="L14" t="n">
         <v>9</v>
       </c>
       <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="n">
         <v>9</v>
       </c>
-      <c r="N14" t="n">
-        <v>5</v>
-      </c>
       <c r="O14" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="P14" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Q14" t="n">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="R14" t="n">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="S14" t="n">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="T14" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="U14" t="n">
-        <v>31</v>
-      </c>
-      <c r="V14" t="n">
         <v>35</v>
       </c>
     </row>
@@ -1514,60 +1470,57 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="E15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F15" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G15" t="n">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="H15" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="I15" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="J15" t="n">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="K15" t="n">
-        <v>44</v>
+        <v>76</v>
       </c>
       <c r="L15" t="n">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="M15" t="n">
-        <v>126</v>
+        <v>207</v>
       </c>
       <c r="N15" t="n">
-        <v>207</v>
+        <v>378</v>
       </c>
       <c r="O15" t="n">
-        <v>378</v>
+        <v>579</v>
       </c>
       <c r="P15" t="n">
-        <v>579</v>
+        <v>763</v>
       </c>
       <c r="Q15" t="n">
-        <v>763</v>
+        <v>911</v>
       </c>
       <c r="R15" t="n">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="S15" t="n">
-        <v>908</v>
+        <v>799</v>
       </c>
       <c r="T15" t="n">
-        <v>799</v>
+        <v>610</v>
       </c>
       <c r="U15" t="n">
-        <v>610</v>
-      </c>
-      <c r="V15" t="n">
         <v>607</v>
       </c>
     </row>
@@ -1600,28 +1553,28 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K16" t="n">
         <v>12</v>
       </c>
       <c r="L16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -1639,9 +1592,6 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1662,10 +1612,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1349</v>
+        <v>23</v>
       </c>
       <c r="E17" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1713,9 +1663,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1736,60 +1683,57 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>621</v>
+        <v>106</v>
       </c>
       <c r="E18" t="n">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="F18" t="n">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="G18" t="n">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H18" t="n">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="I18" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="J18" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K18" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="L18" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="M18" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N18" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="O18" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="Q18" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="R18" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="S18" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -1810,60 +1754,57 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>54</v>
+        <v>11</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
       </c>
       <c r="F19" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G19" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H19" t="n">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="I19" t="n">
         <v>37</v>
       </c>
       <c r="J19" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="K19" t="n">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="L19" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="M19" t="n">
-        <v>72</v>
+        <v>99</v>
       </c>
       <c r="N19" t="n">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="O19" t="n">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="P19" t="n">
-        <v>317</v>
+        <v>605</v>
       </c>
       <c r="Q19" t="n">
-        <v>605</v>
+        <v>1140</v>
       </c>
       <c r="R19" t="n">
-        <v>1140</v>
+        <v>2283</v>
       </c>
       <c r="S19" t="n">
-        <v>2283</v>
+        <v>3443</v>
       </c>
       <c r="T19" t="n">
-        <v>3443</v>
+        <v>5232</v>
       </c>
       <c r="U19" t="n">
-        <v>5232</v>
-      </c>
-      <c r="V19" t="n">
         <v>10391</v>
       </c>
     </row>
@@ -1884,60 +1825,57 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="E20" t="n">
-        <v>80</v>
+        <v>101</v>
       </c>
       <c r="F20" t="n">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="G20" t="n">
-        <v>145</v>
+        <v>448</v>
       </c>
       <c r="H20" t="n">
-        <v>448</v>
+        <v>684</v>
       </c>
       <c r="I20" t="n">
-        <v>684</v>
+        <v>705</v>
       </c>
       <c r="J20" t="n">
-        <v>705</v>
+        <v>645</v>
       </c>
       <c r="K20" t="n">
-        <v>645</v>
+        <v>741</v>
       </c>
       <c r="L20" t="n">
-        <v>741</v>
+        <v>727</v>
       </c>
       <c r="M20" t="n">
-        <v>727</v>
+        <v>776</v>
       </c>
       <c r="N20" t="n">
-        <v>776</v>
+        <v>782</v>
       </c>
       <c r="O20" t="n">
-        <v>782</v>
+        <v>842</v>
       </c>
       <c r="P20" t="n">
-        <v>842</v>
+        <v>756</v>
       </c>
       <c r="Q20" t="n">
-        <v>756</v>
+        <v>810</v>
       </c>
       <c r="R20" t="n">
-        <v>810</v>
+        <v>654</v>
       </c>
       <c r="S20" t="n">
-        <v>654</v>
+        <v>458</v>
       </c>
       <c r="T20" t="n">
-        <v>458</v>
+        <v>378</v>
       </c>
       <c r="U20" t="n">
-        <v>378</v>
-      </c>
-      <c r="V20" t="n">
         <v>367</v>
       </c>
     </row>
@@ -1964,37 +1902,37 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="H21" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I21" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="K21" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O21" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="P21" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2009,9 +1947,6 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2026,7 +1961,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2052,95 +1987,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -2163,60 +2093,57 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E2" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="I2" t="n">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="J2" t="n">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="K2" t="n">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="L2" t="n">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="M2" t="n">
-        <v>128</v>
+        <v>191</v>
       </c>
       <c r="N2" t="n">
-        <v>191</v>
+        <v>286</v>
       </c>
       <c r="O2" t="n">
-        <v>286</v>
+        <v>396</v>
       </c>
       <c r="P2" t="n">
-        <v>396</v>
+        <v>472</v>
       </c>
       <c r="Q2" t="n">
-        <v>472</v>
+        <v>539</v>
       </c>
       <c r="R2" t="n">
-        <v>539</v>
+        <v>592</v>
       </c>
       <c r="S2" t="n">
-        <v>592</v>
+        <v>510</v>
       </c>
       <c r="T2" t="n">
-        <v>510</v>
+        <v>439</v>
       </c>
       <c r="U2" t="n">
-        <v>439</v>
-      </c>
-      <c r="V2" t="n">
         <v>380</v>
       </c>
     </row>
@@ -2237,60 +2164,57 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E3" t="n">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="G3" t="n">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="H3" t="n">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="I3" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="J3" t="n">
-        <v>41</v>
+        <v>74</v>
       </c>
       <c r="K3" t="n">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="L3" t="n">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="M3" t="n">
-        <v>189</v>
+        <v>312</v>
       </c>
       <c r="N3" t="n">
-        <v>312</v>
+        <v>633</v>
       </c>
       <c r="O3" t="n">
-        <v>633</v>
+        <v>1058</v>
       </c>
       <c r="P3" t="n">
-        <v>1058</v>
+        <v>1328</v>
       </c>
       <c r="Q3" t="n">
-        <v>1328</v>
+        <v>1578</v>
       </c>
       <c r="R3" t="n">
-        <v>1578</v>
+        <v>1399</v>
       </c>
       <c r="S3" t="n">
-        <v>1399</v>
+        <v>979</v>
       </c>
       <c r="T3" t="n">
-        <v>979</v>
+        <v>509</v>
       </c>
       <c r="U3" t="n">
-        <v>509</v>
-      </c>
-      <c r="V3" t="n">
         <v>287</v>
       </c>
     </row>
@@ -2311,7 +2235,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>2</v>
@@ -2320,51 +2244,48 @@
         <v>2</v>
       </c>
       <c r="G4" t="n">
+        <v>3</v>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" t="n">
+        <v>7</v>
+      </c>
+      <c r="L4" t="n">
         <v>3</v>
       </c>
-      <c r="I4" t="n">
-        <v>2</v>
-      </c>
-      <c r="J4" t="n">
-        <v>4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2</v>
-      </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>7</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3</v>
       </c>
       <c r="N4" t="n">
         <v>7</v>
       </c>
       <c r="O4" t="n">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="P4" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="Q4" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="R4" t="n">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="S4" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="T4" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="U4" t="n">
-        <v>15</v>
-      </c>
-      <c r="V4" t="n">
         <v>12</v>
       </c>
     </row>
@@ -2385,60 +2306,57 @@
         </is>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
         <v>7</v>
       </c>
-      <c r="E5" t="n">
-        <v>1</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" t="n">
-        <v>8</v>
-      </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="I5" t="n">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="J5" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K5" t="n">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="L5" t="n">
-        <v>29</v>
+        <v>79</v>
       </c>
       <c r="M5" t="n">
-        <v>79</v>
+        <v>170</v>
       </c>
       <c r="N5" t="n">
-        <v>170</v>
+        <v>327</v>
       </c>
       <c r="O5" t="n">
-        <v>327</v>
+        <v>530</v>
       </c>
       <c r="P5" t="n">
-        <v>530</v>
+        <v>747</v>
       </c>
       <c r="Q5" t="n">
-        <v>747</v>
+        <v>935</v>
       </c>
       <c r="R5" t="n">
-        <v>935</v>
+        <v>1033</v>
       </c>
       <c r="S5" t="n">
-        <v>1033</v>
+        <v>853</v>
       </c>
       <c r="T5" t="n">
-        <v>853</v>
+        <v>552</v>
       </c>
       <c r="U5" t="n">
-        <v>552</v>
-      </c>
-      <c r="V5" t="n">
         <v>466</v>
       </c>
     </row>
@@ -2462,57 +2380,54 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="n">
         <v>2</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="K6" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="L6" t="n">
+        <v>7</v>
+      </c>
+      <c r="M6" t="n">
         <v>9</v>
       </c>
-      <c r="M6" t="n">
-        <v>7</v>
-      </c>
       <c r="N6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O6" t="n">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="P6" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="Q6" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="R6" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="S6" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="T6" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="U6" t="n">
-        <v>15</v>
-      </c>
-      <c r="V6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -2533,60 +2448,57 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G7" t="n">
         <v>24</v>
       </c>
       <c r="H7" t="n">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I7" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="K7" t="n">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="L7" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M7" t="n">
-        <v>42</v>
+        <v>80</v>
       </c>
       <c r="N7" t="n">
-        <v>80</v>
+        <v>126</v>
       </c>
       <c r="O7" t="n">
-        <v>126</v>
+        <v>228</v>
       </c>
       <c r="P7" t="n">
-        <v>228</v>
+        <v>403</v>
       </c>
       <c r="Q7" t="n">
-        <v>403</v>
+        <v>698</v>
       </c>
       <c r="R7" t="n">
-        <v>698</v>
+        <v>1015</v>
       </c>
       <c r="S7" t="n">
-        <v>1015</v>
+        <v>1134</v>
       </c>
       <c r="T7" t="n">
-        <v>1134</v>
+        <v>1029</v>
       </c>
       <c r="U7" t="n">
-        <v>1029</v>
-      </c>
-      <c r="V7" t="n">
         <v>1116</v>
       </c>
     </row>
@@ -2619,48 +2531,45 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O8" t="n">
+        <v>1</v>
+      </c>
+      <c r="P8" t="n">
         <v>2</v>
       </c>
-      <c r="P8" t="n">
-        <v>1</v>
-      </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
         <v>2</v>
       </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
       <c r="S8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>1</v>
-      </c>
-      <c r="V8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2714,10 +2623,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -2732,9 +2641,6 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2755,60 +2661,57 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="G10" t="n">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="H10" t="n">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="I10" t="n">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="J10" t="n">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="K10" t="n">
-        <v>143</v>
+        <v>260</v>
       </c>
       <c r="L10" t="n">
-        <v>260</v>
+        <v>466</v>
       </c>
       <c r="M10" t="n">
-        <v>466</v>
+        <v>749</v>
       </c>
       <c r="N10" t="n">
-        <v>749</v>
+        <v>1279</v>
       </c>
       <c r="O10" t="n">
-        <v>1279</v>
+        <v>1989</v>
       </c>
       <c r="P10" t="n">
-        <v>1989</v>
+        <v>2635</v>
       </c>
       <c r="Q10" t="n">
-        <v>2635</v>
+        <v>3112</v>
       </c>
       <c r="R10" t="n">
-        <v>3112</v>
+        <v>3151</v>
       </c>
       <c r="S10" t="n">
-        <v>3151</v>
+        <v>2755</v>
       </c>
       <c r="T10" t="n">
-        <v>2755</v>
+        <v>1954</v>
       </c>
       <c r="U10" t="n">
-        <v>1954</v>
-      </c>
-      <c r="V10" t="n">
         <v>1819</v>
       </c>
     </row>
@@ -2829,60 +2732,57 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="E11" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="G11" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H11" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="I11" t="n">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="J11" t="n">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="K11" t="n">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="L11" t="n">
-        <v>70</v>
+        <v>103</v>
       </c>
       <c r="M11" t="n">
-        <v>103</v>
+        <v>187</v>
       </c>
       <c r="N11" t="n">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="O11" t="n">
-        <v>306</v>
+        <v>510</v>
       </c>
       <c r="P11" t="n">
-        <v>510</v>
+        <v>774</v>
       </c>
       <c r="Q11" t="n">
-        <v>774</v>
+        <v>1155</v>
       </c>
       <c r="R11" t="n">
-        <v>1155</v>
+        <v>1408</v>
       </c>
       <c r="S11" t="n">
-        <v>1408</v>
+        <v>1426</v>
       </c>
       <c r="T11" t="n">
-        <v>1426</v>
+        <v>1265</v>
       </c>
       <c r="U11" t="n">
-        <v>1265</v>
-      </c>
-      <c r="V11" t="n">
         <v>1373</v>
       </c>
     </row>
@@ -2903,60 +2803,57 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>3</v>
       </c>
       <c r="G12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H12" t="n">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I12" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J12" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="K12" t="n">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="L12" t="n">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="M12" t="n">
-        <v>141</v>
+        <v>230</v>
       </c>
       <c r="N12" t="n">
-        <v>230</v>
+        <v>351</v>
       </c>
       <c r="O12" t="n">
-        <v>351</v>
+        <v>371</v>
       </c>
       <c r="P12" t="n">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="Q12" t="n">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="R12" t="n">
-        <v>381</v>
+        <v>305</v>
       </c>
       <c r="S12" t="n">
-        <v>305</v>
+        <v>201</v>
       </c>
       <c r="T12" t="n">
-        <v>201</v>
+        <v>132</v>
       </c>
       <c r="U12" t="n">
-        <v>132</v>
-      </c>
-      <c r="V12" t="n">
         <v>88</v>
       </c>
     </row>
@@ -2977,10 +2874,10 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -2989,7 +2886,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
         <v>1</v>
@@ -2998,39 +2895,36 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N13" t="n">
         <v>6</v>
       </c>
       <c r="O13" t="n">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="P13" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="Q13" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="R13" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="S13" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="T13" t="n">
         <v>21</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
-      </c>
-      <c r="V13" t="n">
         <v>37</v>
       </c>
     </row>
@@ -3057,54 +2951,51 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
+        <v>4</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>5</v>
+      </c>
+      <c r="M14" t="n">
         <v>2</v>
-      </c>
-      <c r="K14" t="n">
-        <v>4</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
       </c>
       <c r="N14" t="n">
         <v>2</v>
       </c>
       <c r="O14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="Q14" t="n">
         <v>14</v>
       </c>
       <c r="R14" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="n">
         <v>11</v>
       </c>
-      <c r="T14" t="n">
-        <v>10</v>
-      </c>
       <c r="U14" t="n">
-        <v>11</v>
-      </c>
-      <c r="V14" t="n">
         <v>12</v>
       </c>
     </row>
@@ -3125,60 +3016,57 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
         <v>3</v>
       </c>
       <c r="G15" t="n">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="I15" t="n">
         <v>10</v>
       </c>
       <c r="J15" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="K15" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="L15" t="n">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="M15" t="n">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="N15" t="n">
-        <v>138</v>
+        <v>250</v>
       </c>
       <c r="O15" t="n">
-        <v>250</v>
+        <v>374</v>
       </c>
       <c r="P15" t="n">
-        <v>374</v>
+        <v>488</v>
       </c>
       <c r="Q15" t="n">
-        <v>488</v>
+        <v>606</v>
       </c>
       <c r="R15" t="n">
-        <v>606</v>
+        <v>557</v>
       </c>
       <c r="S15" t="n">
-        <v>557</v>
+        <v>509</v>
       </c>
       <c r="T15" t="n">
-        <v>509</v>
+        <v>373</v>
       </c>
       <c r="U15" t="n">
-        <v>373</v>
-      </c>
-      <c r="V15" t="n">
         <v>375</v>
       </c>
     </row>
@@ -3252,9 +3140,6 @@
       <c r="U16" t="n">
         <v>0</v>
       </c>
-      <c r="V16" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -3273,10 +3158,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>789</v>
+        <v>9</v>
       </c>
       <c r="E17" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -3324,9 +3209,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3347,34 +3229,34 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>330</v>
+        <v>51</v>
       </c>
       <c r="E18" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F18" t="n">
+        <v>26</v>
+      </c>
+      <c r="G18" t="n">
+        <v>32</v>
+      </c>
+      <c r="H18" t="n">
         <v>24</v>
       </c>
-      <c r="G18" t="n">
-        <v>26</v>
-      </c>
-      <c r="H18" t="n">
-        <v>32</v>
-      </c>
       <c r="I18" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="J18" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" t="n">
         <v>13</v>
       </c>
       <c r="L18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="N18" t="n">
         <v>7</v>
@@ -3386,21 +3268,18 @@
         <v>7</v>
       </c>
       <c r="Q18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R18" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="S18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3421,60 +3300,57 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="E19" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G19" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H19" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="I19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J19" t="n">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="K19" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="L19" t="n">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M19" t="n">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="N19" t="n">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="O19" t="n">
-        <v>128</v>
+        <v>201</v>
       </c>
       <c r="P19" t="n">
-        <v>201</v>
+        <v>372</v>
       </c>
       <c r="Q19" t="n">
-        <v>372</v>
+        <v>635</v>
       </c>
       <c r="R19" t="n">
-        <v>635</v>
+        <v>1108</v>
       </c>
       <c r="S19" t="n">
-        <v>1108</v>
+        <v>1583</v>
       </c>
       <c r="T19" t="n">
-        <v>1583</v>
+        <v>2168</v>
       </c>
       <c r="U19" t="n">
-        <v>2168</v>
-      </c>
-      <c r="V19" t="n">
         <v>3821</v>
       </c>
     </row>
@@ -3495,60 +3371,57 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E20" t="n">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="F20" t="n">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="G20" t="n">
-        <v>81</v>
+        <v>338</v>
       </c>
       <c r="H20" t="n">
-        <v>338</v>
+        <v>555</v>
       </c>
       <c r="I20" t="n">
-        <v>555</v>
+        <v>571</v>
       </c>
       <c r="J20" t="n">
-        <v>571</v>
+        <v>517</v>
       </c>
       <c r="K20" t="n">
-        <v>517</v>
+        <v>608</v>
       </c>
       <c r="L20" t="n">
-        <v>608</v>
+        <v>574</v>
       </c>
       <c r="M20" t="n">
-        <v>574</v>
+        <v>660</v>
       </c>
       <c r="N20" t="n">
-        <v>660</v>
+        <v>639</v>
       </c>
       <c r="O20" t="n">
-        <v>639</v>
+        <v>685</v>
       </c>
       <c r="P20" t="n">
-        <v>685</v>
+        <v>587</v>
       </c>
       <c r="Q20" t="n">
-        <v>587</v>
+        <v>617</v>
       </c>
       <c r="R20" t="n">
-        <v>617</v>
+        <v>447</v>
       </c>
       <c r="S20" t="n">
-        <v>447</v>
+        <v>282</v>
       </c>
       <c r="T20" t="n">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="U20" t="n">
-        <v>200</v>
-      </c>
-      <c r="V20" t="n">
         <v>176</v>
       </c>
     </row>
@@ -3575,37 +3448,37 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H21" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="I21" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="J21" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="K21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="L21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="M21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -3620,9 +3493,6 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3637,7 +3507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:U21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3663,95 +3533,90 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>0-1</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>5-9</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>5-9</t>
+          <t>10-14</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>10-14</t>
+          <t>15-19</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>15-19</t>
+          <t>20-24</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>20-24</t>
+          <t>25-29</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>25-29</t>
+          <t>30-34</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>30-34</t>
+          <t>35-39</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>35-39</t>
+          <t>40-44</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
         <is>
-          <t>40-44</t>
+          <t>45-49</t>
         </is>
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>45-49</t>
+          <t>50-54</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
         <is>
-          <t>50-54</t>
+          <t>55-59</t>
         </is>
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>55-59</t>
+          <t>60-64</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>60-64</t>
+          <t>65-69</t>
         </is>
       </c>
       <c r="R1" t="inlineStr">
         <is>
-          <t>65-69</t>
+          <t>70-74</t>
         </is>
       </c>
       <c r="S1" t="inlineStr">
         <is>
-          <t>70-74</t>
+          <t>75-79</t>
         </is>
       </c>
       <c r="T1" t="inlineStr">
         <is>
-          <t>75-79</t>
+          <t>80-84</t>
         </is>
       </c>
       <c r="U1" t="inlineStr">
-        <is>
-          <t>80-84</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
         <is>
           <t>85-120</t>
         </is>
@@ -3774,60 +3639,57 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E2" t="n">
         <v>19</v>
       </c>
       <c r="F2" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H2" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I2" t="n">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="J2" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K2" t="n">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L2" t="n">
-        <v>43</v>
+        <v>82</v>
       </c>
       <c r="M2" t="n">
-        <v>82</v>
+        <v>118</v>
       </c>
       <c r="N2" t="n">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="O2" t="n">
-        <v>184</v>
+        <v>253</v>
       </c>
       <c r="P2" t="n">
-        <v>253</v>
+        <v>365</v>
       </c>
       <c r="Q2" t="n">
-        <v>365</v>
+        <v>434</v>
       </c>
       <c r="R2" t="n">
-        <v>434</v>
+        <v>531</v>
       </c>
       <c r="S2" t="n">
-        <v>531</v>
+        <v>460</v>
       </c>
       <c r="T2" t="n">
-        <v>460</v>
+        <v>427</v>
       </c>
       <c r="U2" t="n">
-        <v>427</v>
-      </c>
-      <c r="V2" t="n">
         <v>513</v>
       </c>
     </row>
@@ -3848,60 +3710,57 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H3" t="n">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="I3" t="n">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="J3" t="n">
-        <v>48</v>
+        <v>78</v>
       </c>
       <c r="K3" t="n">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="L3" t="n">
-        <v>128</v>
+        <v>215</v>
       </c>
       <c r="M3" t="n">
-        <v>215</v>
+        <v>329</v>
       </c>
       <c r="N3" t="n">
-        <v>329</v>
+        <v>550</v>
       </c>
       <c r="O3" t="n">
-        <v>550</v>
+        <v>778</v>
       </c>
       <c r="P3" t="n">
-        <v>778</v>
+        <v>966</v>
       </c>
       <c r="Q3" t="n">
-        <v>966</v>
+        <v>1116</v>
       </c>
       <c r="R3" t="n">
-        <v>1116</v>
+        <v>1069</v>
       </c>
       <c r="S3" t="n">
-        <v>1069</v>
+        <v>785</v>
       </c>
       <c r="T3" t="n">
-        <v>785</v>
+        <v>444</v>
       </c>
       <c r="U3" t="n">
-        <v>444</v>
-      </c>
-      <c r="V3" t="n">
         <v>295</v>
       </c>
     </row>
@@ -3922,60 +3781,57 @@
         </is>
       </c>
       <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
         <v>2</v>
       </c>
-      <c r="E4" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
       <c r="G4" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
         <v>2</v>
       </c>
-      <c r="H4" t="n">
+      <c r="J4" t="n">
+        <v>5</v>
+      </c>
+      <c r="K4" t="n">
         <v>4</v>
       </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5</v>
-      </c>
       <c r="L4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="N4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="O4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="R4" t="n">
         <v>23</v>
       </c>
       <c r="S4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="T4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="U4" t="n">
-        <v>18</v>
-      </c>
-      <c r="V4" t="n">
         <v>24</v>
       </c>
     </row>
@@ -3996,60 +3852,57 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="K5" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="L5" t="n">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="M5" t="n">
-        <v>77</v>
+        <v>133</v>
       </c>
       <c r="N5" t="n">
-        <v>133</v>
+        <v>256</v>
       </c>
       <c r="O5" t="n">
-        <v>256</v>
+        <v>484</v>
       </c>
       <c r="P5" t="n">
-        <v>484</v>
+        <v>683</v>
       </c>
       <c r="Q5" t="n">
-        <v>683</v>
+        <v>967</v>
       </c>
       <c r="R5" t="n">
-        <v>967</v>
+        <v>1148</v>
       </c>
       <c r="S5" t="n">
-        <v>1148</v>
+        <v>1062</v>
       </c>
       <c r="T5" t="n">
-        <v>1062</v>
+        <v>815</v>
       </c>
       <c r="U5" t="n">
-        <v>815</v>
-      </c>
-      <c r="V5" t="n">
         <v>718</v>
       </c>
     </row>
@@ -4070,10 +3923,10 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -4082,28 +3935,28 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J6" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" t="n">
         <v>3</v>
       </c>
-      <c r="K6" t="n">
-        <v>4</v>
-      </c>
       <c r="L6" t="n">
+        <v>6</v>
+      </c>
+      <c r="M6" t="n">
         <v>3</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>6</v>
       </c>
-      <c r="N6" t="n">
-        <v>3</v>
-      </c>
       <c r="O6" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P6" t="n">
         <v>12</v>
@@ -4112,18 +3965,15 @@
         <v>12</v>
       </c>
       <c r="R6" t="n">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="S6" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="T6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U6" t="n">
-        <v>21</v>
-      </c>
-      <c r="V6" t="n">
         <v>8</v>
       </c>
     </row>
@@ -4144,60 +3994,57 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="E7" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G7" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="H7" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="I7" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="J7" t="n">
         <v>16</v>
       </c>
       <c r="K7" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="L7" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M7" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="N7" t="n">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="O7" t="n">
-        <v>91</v>
+        <v>146</v>
       </c>
       <c r="P7" t="n">
-        <v>146</v>
+        <v>231</v>
       </c>
       <c r="Q7" t="n">
-        <v>231</v>
+        <v>450</v>
       </c>
       <c r="R7" t="n">
-        <v>450</v>
+        <v>802</v>
       </c>
       <c r="S7" t="n">
-        <v>802</v>
+        <v>1120</v>
       </c>
       <c r="T7" t="n">
-        <v>1120</v>
+        <v>1276</v>
       </c>
       <c r="U7" t="n">
-        <v>1276</v>
-      </c>
-      <c r="V7" t="n">
         <v>1863</v>
       </c>
     </row>
@@ -4245,19 +4092,19 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -4269,9 +4116,6 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4325,10 +4169,10 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -4343,9 +4187,6 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
-      </c>
-      <c r="V9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4366,60 +4207,57 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="G10" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="H10" t="n">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="I10" t="n">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="J10" t="n">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="K10" t="n">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="L10" t="n">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="M10" t="n">
-        <v>182</v>
+        <v>305</v>
       </c>
       <c r="N10" t="n">
-        <v>305</v>
+        <v>540</v>
       </c>
       <c r="O10" t="n">
-        <v>540</v>
+        <v>862</v>
       </c>
       <c r="P10" t="n">
-        <v>862</v>
+        <v>1253</v>
       </c>
       <c r="Q10" t="n">
-        <v>1253</v>
+        <v>1785</v>
       </c>
       <c r="R10" t="n">
-        <v>1785</v>
+        <v>2320</v>
       </c>
       <c r="S10" t="n">
-        <v>2320</v>
+        <v>2452</v>
       </c>
       <c r="T10" t="n">
-        <v>2452</v>
+        <v>2310</v>
       </c>
       <c r="U10" t="n">
-        <v>2310</v>
-      </c>
-      <c r="V10" t="n">
         <v>2681</v>
       </c>
     </row>
@@ -4440,60 +4278,57 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E11" t="n">
         <v>19</v>
       </c>
       <c r="F11" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G11" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H11" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I11" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J11" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="K11" t="n">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L11" t="n">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="M11" t="n">
-        <v>63</v>
+        <v>88</v>
       </c>
       <c r="N11" t="n">
-        <v>88</v>
+        <v>118</v>
       </c>
       <c r="O11" t="n">
-        <v>118</v>
+        <v>228</v>
       </c>
       <c r="P11" t="n">
-        <v>228</v>
+        <v>353</v>
       </c>
       <c r="Q11" t="n">
-        <v>353</v>
+        <v>561</v>
       </c>
       <c r="R11" t="n">
-        <v>561</v>
+        <v>839</v>
       </c>
       <c r="S11" t="n">
-        <v>839</v>
+        <v>996</v>
       </c>
       <c r="T11" t="n">
-        <v>996</v>
+        <v>1059</v>
       </c>
       <c r="U11" t="n">
-        <v>1059</v>
-      </c>
-      <c r="V11" t="n">
         <v>1546</v>
       </c>
     </row>
@@ -4514,60 +4349,57 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G12" t="n">
+        <v>8</v>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
-      <c r="H12" t="n">
-        <v>8</v>
-      </c>
       <c r="I12" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J12" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="K12" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="L12" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="M12" t="n">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="N12" t="n">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="O12" t="n">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="P12" t="n">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="Q12" t="n">
+        <v>200</v>
+      </c>
+      <c r="R12" t="n">
+        <v>204</v>
+      </c>
+      <c r="S12" t="n">
+        <v>140</v>
+      </c>
+      <c r="T12" t="n">
         <v>126</v>
       </c>
-      <c r="R12" t="n">
-        <v>200</v>
-      </c>
-      <c r="S12" t="n">
-        <v>204</v>
-      </c>
-      <c r="T12" t="n">
-        <v>140</v>
-      </c>
       <c r="U12" t="n">
-        <v>126</v>
-      </c>
-      <c r="V12" t="n">
         <v>93</v>
       </c>
     </row>
@@ -4591,57 +4423,54 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="P13" t="n">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="Q13" t="n">
+        <v>13</v>
+      </c>
+      <c r="R13" t="n">
+        <v>20</v>
+      </c>
+      <c r="S13" t="n">
         <v>22</v>
       </c>
-      <c r="R13" t="n">
-        <v>13</v>
-      </c>
-      <c r="S13" t="n">
-        <v>20</v>
-      </c>
       <c r="T13" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="U13" t="n">
-        <v>21</v>
-      </c>
-      <c r="V13" t="n">
         <v>35</v>
       </c>
     </row>
@@ -4662,13 +4491,13 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -4677,45 +4506,42 @@
         <v>1</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>9</v>
+      </c>
+      <c r="L14" t="n">
+        <v>4</v>
+      </c>
+      <c r="M14" t="n">
         <v>3</v>
       </c>
-      <c r="K14" t="n">
-        <v>1</v>
-      </c>
-      <c r="L14" t="n">
-        <v>9</v>
-      </c>
-      <c r="M14" t="n">
-        <v>4</v>
-      </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="O14" t="n">
+        <v>12</v>
+      </c>
+      <c r="P14" t="n">
         <v>7</v>
       </c>
-      <c r="P14" t="n">
-        <v>12</v>
-      </c>
       <c r="Q14" t="n">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="R14" t="n">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="S14" t="n">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="T14" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="U14" t="n">
-        <v>20</v>
-      </c>
-      <c r="V14" t="n">
         <v>23</v>
       </c>
     </row>
@@ -4736,13 +4562,13 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G15" t="n">
         <v>4</v>
@@ -4751,45 +4577,42 @@
         <v>4</v>
       </c>
       <c r="I15" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J15" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="K15" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="L15" t="n">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="M15" t="n">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="N15" t="n">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="O15" t="n">
-        <v>128</v>
+        <v>205</v>
       </c>
       <c r="P15" t="n">
-        <v>205</v>
+        <v>275</v>
       </c>
       <c r="Q15" t="n">
-        <v>275</v>
+        <v>305</v>
       </c>
       <c r="R15" t="n">
-        <v>305</v>
+        <v>351</v>
       </c>
       <c r="S15" t="n">
-        <v>351</v>
+        <v>290</v>
       </c>
       <c r="T15" t="n">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="U15" t="n">
-        <v>237</v>
-      </c>
-      <c r="V15" t="n">
         <v>232</v>
       </c>
     </row>
@@ -4822,28 +4645,28 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J16" t="n">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="K16" t="n">
         <v>12</v>
       </c>
       <c r="L16" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -4861,9 +4684,6 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
-      </c>
-      <c r="V16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4884,10 +4704,10 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>556</v>
+        <v>14</v>
       </c>
       <c r="E17" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -4935,9 +4755,6 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4958,60 +4775,57 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>285</v>
+        <v>55</v>
       </c>
       <c r="E18" t="n">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="F18" t="n">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="G18" t="n">
         <v>17</v>
       </c>
       <c r="H18" t="n">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I18" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J18" t="n">
         <v>13</v>
       </c>
       <c r="K18" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L18" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
+        <v>9</v>
+      </c>
+      <c r="N18" t="n">
+        <v>4</v>
+      </c>
+      <c r="O18" t="n">
+        <v>5</v>
+      </c>
+      <c r="P18" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q18" t="n">
         <v>7</v>
       </c>
-      <c r="N18" t="n">
-        <v>9</v>
-      </c>
-      <c r="O18" t="n">
-        <v>4</v>
-      </c>
-      <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>3</v>
       </c>
-      <c r="R18" t="n">
-        <v>7</v>
-      </c>
       <c r="S18" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
-      </c>
-      <c r="V18" t="n">
         <v>3</v>
       </c>
     </row>
@@ -5032,60 +4846,57 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E19" t="n">
+        <v>4</v>
+      </c>
+      <c r="F19" t="n">
         <v>5</v>
       </c>
-      <c r="F19" t="n">
-        <v>4</v>
-      </c>
       <c r="G19" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="H19" t="n">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="I19" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J19" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K19" t="n">
-        <v>11</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="M19" t="n">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="N19" t="n">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="O19" t="n">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="P19" t="n">
-        <v>116</v>
+        <v>233</v>
       </c>
       <c r="Q19" t="n">
-        <v>233</v>
+        <v>505</v>
       </c>
       <c r="R19" t="n">
-        <v>505</v>
+        <v>1175</v>
       </c>
       <c r="S19" t="n">
-        <v>1175</v>
+        <v>1860</v>
       </c>
       <c r="T19" t="n">
-        <v>1860</v>
+        <v>3064</v>
       </c>
       <c r="U19" t="n">
-        <v>3064</v>
-      </c>
-      <c r="V19" t="n">
         <v>6570</v>
       </c>
     </row>
@@ -5106,60 +4917,57 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="E20" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F20" t="n">
-        <v>36</v>
+        <v>64</v>
       </c>
       <c r="G20" t="n">
-        <v>64</v>
+        <v>110</v>
       </c>
       <c r="H20" t="n">
-        <v>110</v>
+        <v>129</v>
       </c>
       <c r="I20" t="n">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="J20" t="n">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="K20" t="n">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="L20" t="n">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="M20" t="n">
-        <v>153</v>
+        <v>116</v>
       </c>
       <c r="N20" t="n">
-        <v>116</v>
+        <v>143</v>
       </c>
       <c r="O20" t="n">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="P20" t="n">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="Q20" t="n">
-        <v>169</v>
+        <v>193</v>
       </c>
       <c r="R20" t="n">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="S20" t="n">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="T20" t="n">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="U20" t="n">
-        <v>178</v>
-      </c>
-      <c r="V20" t="n">
         <v>191</v>
       </c>
     </row>
@@ -5189,34 +4997,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H21" t="n">
+        <v>3</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -5231,9 +5039,6 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
-      </c>
-      <c r="V21" t="n">
         <v>0</v>
       </c>
     </row>

--- a/data/norm.cause-of-death-2019.xlsx
+++ b/data/norm.cause-of-death-2019.xlsx
@@ -685,7 +685,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -756,7 +756,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -1537,7 +1537,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -2231,7 +2231,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -2302,7 +2302,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -3083,7 +3083,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Blood / Immune</t>
+          <t>Blood</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -3848,7 +3848,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Metabolic / Nutritional</t>
+          <t>Metabolic</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -4629,7 +4629,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Pregnancy / Childbirth</t>
+          <t>Pregnancy</t>
         </is>
       </c>
       <c r="D16" t="n">
